--- a/docs/B65_-_Hiver_2019_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/docs/B65_-_Hiver_2019_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ecole\synthese\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ecole\synthese\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985BE762-B30A-4DFC-A398-265E89F5A3A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D24FFC-8B47-40ED-8C65-9181E70250BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="494" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="494" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Planification" sheetId="1" r:id="rId1"/>
@@ -2832,10 +2832,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,7 +3251,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -9627,7 +9627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -11050,7 +11050,7 @@
   <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11115,7 +11115,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="63" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 20 champs à remplir!</v>
+        <v>Attention, il reste 16 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>0</v>
+        <v>8.3333333333333398E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -11260,15 +11260,15 @@
       </c>
       <c r="S10" s="60">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>0</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="T10" s="61">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>0</v>
+        <v>120.00000000000011</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>0</v>
+        <v>8.3333333333333398E-2</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="V11" s="62">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -11395,16 +11395,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F12),"",'Sprint 1 - Bilan'!F12)</f>
         <v/>
       </c>
-      <c r="G13" s="116"/>
-      <c r="H13" s="114"/>
+      <c r="G13" s="116">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H13" s="114">
+        <v>1</v>
+      </c>
       <c r="I13" s="115"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11412,7 +11416,7 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
@@ -11420,11 +11424,11 @@
       </c>
       <c r="V13" s="62">
         <f>V11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>0 heure</v>
+        <v>2 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -11501,16 +11505,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F14),"",'Sprint 1 - Bilan'!F14)</f>
         <v/>
       </c>
-      <c r="G15" s="116"/>
-      <c r="H15" s="114"/>
+      <c r="G15" s="116">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H15" s="114">
+        <v>1</v>
+      </c>
       <c r="I15" s="115"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11518,16 +11526,16 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>0 minute</v>
+        <v>2 heures</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>0h00</v>
+        <v>2h00</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -11573,11 +11581,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>10 tâches sont en retard!</v>
+        <v>8 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -12718,11 +12726,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -12730,21 +12738,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>20 champs</v>
+        <v>16 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -12889,7 +12897,7 @@
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations xWindow="1280" yWindow="421" count="6">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Nom de tâche trop long" error="Le nom de votre tâche doit être court. _x000a_Un maximum de 72 caractères est mis à votre disposition._x000a_Pour plus de détail, veuillez faire l'ajout de commentaires." promptTitle="Nom de la tâche" prompt="_x000a_Veuillez saisir le nom de la tâche._x000a__x000a_Lorsque pertinent, n'oubliez pas d'ajouter une description de votre tâche sous forme de commentaire." sqref="C9:C43" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>72</formula2>
@@ -12985,7 +12993,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="63" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 42 champs à remplir!</v>
+        <v>Attention, il reste 38 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13257,24 +13265,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E13" s="73" t="str">
+      <c r="E13" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13))</f>
-        <v/>
-      </c>
-      <c r="F13" s="77" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F13" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H13)&lt;&gt;0,'Sprint 2 - Bilan'!$H13,IF(LEN('Sprint 2 - Bilan'!$F13)=0,"",'Sprint 2 - Bilan'!$F13))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G13" s="116"/>
       <c r="H13" s="114"/>
       <c r="I13" s="115"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13282,7 +13290,7 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
@@ -13363,24 +13371,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E15" s="73" t="str">
+      <c r="E15" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15))</f>
-        <v/>
-      </c>
-      <c r="F15" s="77" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F15" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H15)&lt;&gt;0,'Sprint 2 - Bilan'!$H15,IF(LEN('Sprint 2 - Bilan'!$F15)=0,"",'Sprint 2 - Bilan'!$F15))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G15" s="116"/>
       <c r="H15" s="114"/>
       <c r="I15" s="115"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13388,7 +13396,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -13443,11 +13451,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>21 tâches n'ont pas été terminé!</v>
+        <v>19 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -14587,11 +14595,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14599,21 +14607,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>42 champs</v>
+        <v>38 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -14736,7 +14744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
@@ -14943,7 +14951,7 @@
       </c>
       <c r="D10" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>2h00</v>
       </c>
       <c r="E10" s="95" t="str">
         <f t="shared" si="0"/>
@@ -14951,7 +14959,7 @@
       </c>
       <c r="F10" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>12h00</v>
+        <v>14h00</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -14961,7 +14969,7 @@
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
-        <v>0</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="N10" s="1">
         <f>'Sprint 3 - Bilan'!V9</f>
@@ -14969,7 +14977,7 @@
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>0.49999999999999967</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
@@ -14980,7 +14988,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="1"/>
@@ -15011,15 +15019,15 @@
       </c>
       <c r="D11" s="103">
         <f>M11</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="104">
         <f>N11</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="105">
         <f>O11</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -15029,15 +15037,15 @@
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>

--- a/docs/B65_-_Hiver_2019_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/docs/B65_-_Hiver_2019_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ecole\synthese\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D24FFC-8B47-40ED-8C65-9181E70250BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF795469-238B-44B1-8C3A-69E18718B59A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="494" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="494" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Planification" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -447,9 +447,6 @@
     <t>Faire la page liste des pièces/items</t>
   </si>
   <si>
-    <t>Exporter les vraies données du jeu et importer dans bd</t>
-  </si>
-  <si>
     <t>Rédiger le rapport de projet</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>Ajouter les items uniques</t>
+  </si>
+  <si>
+    <t>Exporter les vraies données du jeu</t>
   </si>
 </sst>
 </file>
@@ -2755,10 +2755,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,10 +2832,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,10 +3178,10 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.75</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,7 +3251,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3677,10 +3677,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,10 +3794,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,10 +4256,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7049,7 +7049,7 @@
   <dimension ref="B1:AJ90"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7655,7 +7655,7 @@
         <v>77</v>
       </c>
       <c r="D15" s="16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>18</v>
@@ -7911,15 +7911,15 @@
       </c>
       <c r="AD18" s="4">
         <f t="array" ref="AD18">SUM(($H$8:$H$42=$AC18)*$G$8:$G$42)</f>
-        <v>1.2291666666666663</v>
+        <v>1.3958333333333333</v>
       </c>
       <c r="AE18" s="4">
         <f>AD18 * 24*60</f>
-        <v>1769.9999999999995</v>
+        <v>2010</v>
       </c>
       <c r="AF18" s="4">
         <f t="shared" ref="AF18:AF19" si="6">DAY(AD18)*24+HOUR(AD18)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" ref="AG18:AG19" si="7">MINUTE(AD18)</f>
@@ -7927,11 +7927,11 @@
       </c>
       <c r="AH18" s="4" t="str">
         <f t="shared" ref="AH18:AH19" si="8">AF18&amp;"h"&amp;TEXT(AG18,"00")</f>
-        <v>29h30</v>
+        <v>33h30</v>
       </c>
       <c r="AJ18" s="4">
         <f>COUNTIF($H$8:$H$42,AC18)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.25">
@@ -7991,15 +7991,15 @@
       </c>
       <c r="AD19" s="4">
         <f t="array" ref="AD19">SUM(($H$8:$H$42=$AC19)*$G$8:$G$42)</f>
-        <v>1.1562500000000004</v>
+        <v>0.98958333333333359</v>
       </c>
       <c r="AE19" s="4">
         <f>AD19 * 24*60</f>
-        <v>1665.0000000000007</v>
+        <v>1425.0000000000005</v>
       </c>
       <c r="AF19" s="4">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="7"/>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="AH19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>27h45</v>
+        <v>23h45</v>
       </c>
       <c r="AJ19" s="4">
         <f>COUNTIF($H$8:$H$42,AC19)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.25">
@@ -8147,13 +8147,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="18">
-        <v>8</v>
+        <v>96</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>3</v>
@@ -8162,7 +8162,7 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" s="3" t="b">
         <f t="shared" si="0"/>
@@ -8200,7 +8200,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="16">
         <v>13</v>
@@ -8253,7 +8253,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="19">
         <v>13</v>
@@ -8306,7 +8306,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="16">
         <v>13</v>
@@ -8359,7 +8359,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="19">
         <v>13</v>
@@ -8412,7 +8412,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="16">
         <v>13</v>
@@ -8465,7 +8465,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="18">
         <v>13</v>
@@ -8518,7 +8518,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="16">
         <v>13</v>
@@ -8568,7 +8568,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="19">
         <v>13</v>
@@ -8618,7 +8618,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="16">
         <v>13</v>
@@ -8668,7 +8668,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="19">
         <v>13</v>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="C22" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v>Exporter les vraies données du jeu et importer dans bd</v>
+        <v>Exporter les vraies données du jeu</v>
       </c>
       <c r="D22" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v>Sprint 3</v>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="113"/>
       <c r="F22" s="114"/>
@@ -11049,8 +11049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11115,7 +11115,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="63" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 16 champs à remplir!</v>
+        <v>Attention, il reste 11 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>8.3333333333333398E-2</v>
+        <v>0.66666666666666818</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -11260,15 +11260,15 @@
       </c>
       <c r="S10" s="60">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>8.3333333333333398E-2</v>
+        <v>0.66666666666666818</v>
       </c>
       <c r="T10" s="61">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>120.00000000000011</v>
+        <v>960.00000000000216</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>8.3333333333333398E-2</v>
+        <v>0.66666666666666818</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="V11" s="62">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -11424,11 +11424,11 @@
       </c>
       <c r="V13" s="62">
         <f>V11</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>2 heures</v>
+        <v>16 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -11452,16 +11452,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F13),"",'Sprint 1 - Bilan'!F13)</f>
         <v/>
       </c>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
+      <c r="G14" s="110">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H14" s="111">
+        <v>1</v>
+      </c>
       <c r="I14" s="112"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11469,7 +11473,7 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
@@ -11531,11 +11535,11 @@
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>2 heures</v>
+        <v>16 heures</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>2h00</v>
+        <v>16h00</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -11559,20 +11563,24 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F15),"",'Sprint 1 - Bilan'!F15)</f>
         <v/>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
+      <c r="G16" s="110">
+        <v>0.41666666666666802</v>
+      </c>
+      <c r="H16" s="111">
+        <v>0.8</v>
+      </c>
       <c r="I16" s="112"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
@@ -11581,11 +11589,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>8 tâches sont en retard!</v>
+        <v>6 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -11820,16 +11828,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F21),"",'Sprint 1 - Bilan'!F21)</f>
         <v/>
       </c>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111"/>
+      <c r="G22" s="110">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H22" s="111">
+        <v>1</v>
+      </c>
       <c r="I22" s="112"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11837,7 +11849,7 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -11848,11 +11860,11 @@
       </c>
       <c r="C23" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v>Exporter les vraies données du jeu et importer dans bd</v>
+        <v>Exporter les vraies données du jeu</v>
       </c>
       <c r="D23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v>Sprint 3</v>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="72" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E22),"",'Sprint 1 - Bilan'!E22)</f>
@@ -11862,8 +11874,12 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F22),"",'Sprint 1 - Bilan'!F22)</f>
         <v/>
       </c>
-      <c r="G23" s="113"/>
-      <c r="H23" s="114"/>
+      <c r="G23" s="113">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H23" s="114">
+        <v>1</v>
+      </c>
       <c r="I23" s="115"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
@@ -12726,33 +12742,33 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>16 champs</v>
+        <v>11 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -12993,7 +13009,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="63" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 38 champs à remplir!</v>
+        <v>Attention, il reste 32 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13318,24 +13334,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E14" s="71" t="str">
+      <c r="E14" s="71">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14))</f>
-        <v/>
-      </c>
-      <c r="F14" s="75" t="str">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F14" s="75">
         <f>IF(LEN('Sprint 2 - Bilan'!$H14)&lt;&gt;0,'Sprint 2 - Bilan'!$H14,IF(LEN('Sprint 2 - Bilan'!$F14)=0,"",'Sprint 2 - Bilan'!$F14))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G14" s="110"/>
       <c r="H14" s="111"/>
       <c r="I14" s="112"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13343,7 +13359,7 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
@@ -13421,13 +13437,13 @@
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E16" s="71" t="str">
+      <c r="E16" s="71">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16))</f>
-        <v/>
-      </c>
-      <c r="F16" s="75" t="str">
+        <v>0.41666666666666802</v>
+      </c>
+      <c r="F16" s="75">
         <f>IF(LEN('Sprint 2 - Bilan'!$H16)&lt;&gt;0,'Sprint 2 - Bilan'!$H16,IF(LEN('Sprint 2 - Bilan'!$F16)=0,"",'Sprint 2 - Bilan'!$F16))</f>
-        <v/>
+        <v>0.8</v>
       </c>
       <c r="G16" s="110"/>
       <c r="H16" s="111"/>
@@ -13451,11 +13467,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>19 tâches n'ont pas été terminé!</v>
+        <v>16 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -13681,24 +13697,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E22" s="71" t="str">
+      <c r="E22" s="71">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22))</f>
-        <v/>
-      </c>
-      <c r="F22" s="75" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F22" s="75">
         <f>IF(LEN('Sprint 2 - Bilan'!$H22)&lt;&gt;0,'Sprint 2 - Bilan'!$H22,IF(LEN('Sprint 2 - Bilan'!$F22)=0,"",'Sprint 2 - Bilan'!$F22))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G22" s="110"/>
       <c r="H22" s="111"/>
       <c r="I22" s="112"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13706,7 +13722,7 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -13717,30 +13733,30 @@
       </c>
       <c r="C23" s="53" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v>Exporter les vraies données du jeu et importer dans bd</v>
+        <v>Exporter les vraies données du jeu</v>
       </c>
       <c r="D23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v>Sprint 3</v>
-      </c>
-      <c r="E23" s="72" t="str">
+        <v>Sprint 2</v>
+      </c>
+      <c r="E23" s="72">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23))</f>
-        <v/>
-      </c>
-      <c r="F23" s="76" t="str">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="F23" s="76">
         <f>IF(LEN('Sprint 2 - Bilan'!$H23)&lt;&gt;0,'Sprint 2 - Bilan'!$H23,IF(LEN('Sprint 2 - Bilan'!$F23)=0,"",'Sprint 2 - Bilan'!$F23))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G23" s="113"/>
       <c r="H23" s="114"/>
       <c r="I23" s="115"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13748,7 +13764,7 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8"/>
     </row>
@@ -14595,11 +14611,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14607,21 +14623,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>38 champs</v>
+        <v>32 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -14744,7 +14760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
@@ -14840,11 +14856,11 @@
       </c>
       <c r="D8" s="94">
         <f>M8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="95">
         <f>N8</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="99">
         <f>O8</f>
@@ -14858,11 +14874,11 @@
       </c>
       <c r="M8" s="1">
         <f>'Sprint 1 - Planification'!AJ18</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N8" s="1">
         <f>'Sprint 1 - Planification'!AJ19</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" s="1">
         <f>SUM(L8:N8)</f>
@@ -14883,11 +14899,11 @@
       </c>
       <c r="D9" s="97" t="str">
         <f t="shared" si="0"/>
-        <v>29h30</v>
+        <v>33h30</v>
       </c>
       <c r="E9" s="98" t="str">
         <f t="shared" si="0"/>
-        <v>27h45</v>
+        <v>23h45</v>
       </c>
       <c r="F9" s="100" t="str">
         <f t="shared" si="0"/>
@@ -14901,11 +14917,11 @@
       </c>
       <c r="M9" s="1">
         <f>'Sprint 1 - Planification'!AD18</f>
-        <v>1.2291666666666663</v>
+        <v>1.3958333333333333</v>
       </c>
       <c r="N9" s="1">
         <f>'Sprint 1 - Planification'!AD19</f>
-        <v>1.1562500000000004</v>
+        <v>0.98958333333333359</v>
       </c>
       <c r="O9" s="1">
         <f>SUM(L9:N9)</f>
@@ -14920,18 +14936,18 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" si="1"/>
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="1"/>
-        <v>27.75</v>
+        <v>23.75</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="V9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Essentielle")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>69</v>
@@ -14951,7 +14967,7 @@
       </c>
       <c r="D10" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>2h00</v>
+        <v>16h00</v>
       </c>
       <c r="E10" s="95" t="str">
         <f t="shared" si="0"/>
@@ -14959,7 +14975,7 @@
       </c>
       <c r="F10" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>14h00</v>
+        <v>28h00</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -14969,7 +14985,7 @@
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
-        <v>8.3333333333333398E-2</v>
+        <v>0.66666666666666818</v>
       </c>
       <c r="N10" s="1">
         <f>'Sprint 3 - Bilan'!V9</f>
@@ -14977,7 +14993,7 @@
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>0.58333333333333304</v>
+        <v>1.1666666666666679</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
@@ -14988,7 +15004,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="1"/>
@@ -14999,7 +15015,7 @@
       </c>
       <c r="V10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Optionnelle")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>70</v>
@@ -15019,15 +15035,15 @@
       </c>
       <c r="D11" s="103">
         <f>M11</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="104">
         <f>N11</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="105">
         <f>O11</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -15037,15 +15053,15 @@
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>

--- a/docs/B65_-_Hiver_2019_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/docs/B65_-_Hiver_2019_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ecole\synthese\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF795469-238B-44B1-8C3A-69E18718B59A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E4A05-841A-4E10-8A72-F9E92E03C88A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="494" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>Exporter les vraies données du jeu</t>
+  </si>
+  <si>
+    <t>Il reste quelques petites choses à fixer dans le parseur</t>
+  </si>
+  <si>
+    <t>pas eu le temps</t>
   </si>
 </sst>
 </file>
@@ -1549,6 +1555,53 @@
   </cellStyles>
   <dxfs count="82">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF40000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF1F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00C000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1707,13 +1760,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1755,26 +1801,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFE00000"/>
       </font>
@@ -1791,26 +1817,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD1FFD1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF40000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF1F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00C000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5FFE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3251,7 +3257,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3677,10 +3683,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,10 +3800,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,10 +4262,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7049,7 +7055,7 @@
   <dimension ref="B1:AJ90"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7860,7 +7866,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="18">
         <v>3</v>
@@ -7946,7 +7952,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="16">
         <v>2</v>
@@ -8026,7 +8032,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>2</v>
@@ -11050,7 +11056,7 @@
   <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11115,7 +11121,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="63" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 11 champs à remplir!</v>
+        <v>Ce sprint totalise 18 heures de travail réalisé. 6 tâches sont en retard!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -11212,7 +11218,7 @@
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>0.66666666666666818</v>
+        <v>0.75000000000000133</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -11260,15 +11266,15 @@
       </c>
       <c r="S10" s="60">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>0.66666666666666818</v>
+        <v>0.75000000000000133</v>
       </c>
       <c r="T10" s="61">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>960.00000000000216</v>
+        <v>1080.0000000000018</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>0.66666666666666818</v>
+        <v>0.75000000000000133</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -11324,7 +11330,7 @@
       </c>
       <c r="V11" s="62">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -11396,7 +11402,7 @@
         <v/>
       </c>
       <c r="G13" s="116">
-        <v>4.1666666666666699E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="H13" s="114">
         <v>1</v>
@@ -11424,11 +11430,11 @@
       </c>
       <c r="V13" s="62">
         <f>V11</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>16 heures</v>
+        <v>18 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -11510,7 +11516,7 @@
         <v/>
       </c>
       <c r="G15" s="116">
-        <v>4.1666666666666699E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H15" s="114">
         <v>1</v>
@@ -11535,11 +11541,11 @@
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>16 heures</v>
+        <v>18 heures</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>16h00</v>
+        <v>18h00</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -11569,7 +11575,9 @@
       <c r="H16" s="111">
         <v>0.8</v>
       </c>
-      <c r="I16" s="112"/>
+      <c r="I16" s="112" t="s">
+        <v>97</v>
+      </c>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11580,7 +11588,7 @@
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
@@ -11617,16 +11625,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F16),"",'Sprint 1 - Bilan'!F16)</f>
         <v/>
       </c>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
+      <c r="G17" s="113">
+        <v>0</v>
+      </c>
+      <c r="H17" s="114">
+        <v>0</v>
+      </c>
+      <c r="I17" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11659,16 +11673,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F17),"",'Sprint 1 - Bilan'!F17)</f>
         <v/>
       </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
+      <c r="G18" s="110">
+        <v>0</v>
+      </c>
+      <c r="H18" s="111">
+        <v>0</v>
+      </c>
+      <c r="I18" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11701,17 +11721,23 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F18),"",'Sprint 1 - Bilan'!F18)</f>
         <v/>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="G19" s="116">
+        <v>0</v>
+      </c>
+      <c r="H19" s="114">
+        <v>0</v>
+      </c>
+      <c r="I19" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11744,16 +11770,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F19),"",'Sprint 1 - Bilan'!F19)</f>
         <v/>
       </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
+      <c r="G20" s="110">
+        <v>0</v>
+      </c>
+      <c r="H20" s="111">
+        <v>0</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11786,16 +11818,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F20),"",'Sprint 1 - Bilan'!F20)</f>
         <v/>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
+      <c r="G21" s="116">
+        <v>0</v>
+      </c>
+      <c r="H21" s="114">
+        <v>0</v>
+      </c>
+      <c r="I21" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11875,7 +11913,7 @@
         <v/>
       </c>
       <c r="G23" s="113">
-        <v>4.1666666666666699E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H23" s="114">
         <v>1</v>
@@ -12742,15 +12780,15 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
@@ -12761,14 +12799,14 @@
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>11 champs</v>
+        <v>aucun champ</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -12826,7 +12864,7 @@
       <formula>OR($D9="Sprint 3",AND($D9="Sprint 1",$F9=100%))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
+  <conditionalFormatting sqref="G21:H21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
     <cfRule type="expression" dxfId="33" priority="19">
       <formula>AND($D21="Sprint 3",$H21&gt;0)</formula>
     </cfRule>
@@ -12834,7 +12872,7 @@
       <formula>AND($D21&lt;&gt;"Sprint 3",$H21&lt;1,NOT(ISBLANK($H21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
+  <conditionalFormatting sqref="G20:H20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
     <cfRule type="expression" dxfId="31" priority="16">
       <formula>AND($D20="Sprint 3",$H20&gt;0)</formula>
     </cfRule>
@@ -12842,9 +12880,9 @@
       <formula>AND($D20&lt;&gt;"Sprint 3",$H20&lt;1,NOT(ISBLANK($H20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I43">
+  <conditionalFormatting sqref="I22:I43">
     <cfRule type="expression" dxfId="29" priority="15">
-      <formula>$O20</formula>
+      <formula>$O22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G43">
@@ -12862,54 +12900,54 @@
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:F9 B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
+  <conditionalFormatting sqref="B9:F9 B11:F11 B13:F13 B15:F15 B17:F17 B19:F19 B21:H21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
     <cfRule type="expression" dxfId="25" priority="21">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:F10 B12:F12 B14:F14 B16:F16 B18:F18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
+  <conditionalFormatting sqref="B10:F10 B12:F12 B14:F14 B16:F16 B18:F18 B20:H20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
     <cfRule type="expression" dxfId="24" priority="18">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:H19 I18:I21">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>AND($D9="Sprint 3",$H9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>AND($D9&lt;&gt;"Sprint 3",$H9&lt;1,NOT(ISBLANK($H9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18">
-    <cfRule type="expression" dxfId="21" priority="4">
+  <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:H18">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>AND($D10="Sprint 3",$H10&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>AND($D10&lt;&gt;"Sprint 3",$H10&lt;1,NOT(ISBLANK($H10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I19">
-    <cfRule type="expression" dxfId="19" priority="3">
+  <conditionalFormatting sqref="I9:I21">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G19">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H19">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19">
-    <cfRule type="expression" dxfId="16" priority="9">
+  <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:H19 I18:I21">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18">
-    <cfRule type="expression" dxfId="15" priority="6">
+  <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:H18">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12944,7 +12982,7 @@
   <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13283,7 +13321,7 @@
       </c>
       <c r="E13" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13))</f>
-        <v>4.1666666666666699E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="F13" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H13)&lt;&gt;0,'Sprint 2 - Bilan'!$H13,IF(LEN('Sprint 2 - Bilan'!$F13)=0,"",'Sprint 2 - Bilan'!$F13))</f>
@@ -13389,7 +13427,7 @@
       </c>
       <c r="E15" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15))</f>
-        <v>4.1666666666666699E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F15" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H15)&lt;&gt;0,'Sprint 2 - Bilan'!$H15,IF(LEN('Sprint 2 - Bilan'!$F15)=0,"",'Sprint 2 - Bilan'!$F15))</f>
@@ -13491,9 +13529,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17))</f>
         <v/>
       </c>
-      <c r="F17" s="76" t="str">
+      <c r="F17" s="76">
         <f>IF(LEN('Sprint 2 - Bilan'!$H17)&lt;&gt;0,'Sprint 2 - Bilan'!$H17,IF(LEN('Sprint 2 - Bilan'!$F17)=0,"",'Sprint 2 - Bilan'!$F17))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G17" s="113"/>
       <c r="H17" s="114"/>
@@ -13533,9 +13571,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18))</f>
         <v/>
       </c>
-      <c r="F18" s="75" t="str">
+      <c r="F18" s="75">
         <f>IF(LEN('Sprint 2 - Bilan'!$H18)&lt;&gt;0,'Sprint 2 - Bilan'!$H18,IF(LEN('Sprint 2 - Bilan'!$F18)=0,"",'Sprint 2 - Bilan'!$F18))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G18" s="110"/>
       <c r="H18" s="111"/>
@@ -13575,9 +13613,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19))</f>
         <v/>
       </c>
-      <c r="F19" s="77" t="str">
+      <c r="F19" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H19)&lt;&gt;0,'Sprint 2 - Bilan'!$H19,IF(LEN('Sprint 2 - Bilan'!$F19)=0,"",'Sprint 2 - Bilan'!$F19))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G19" s="116"/>
       <c r="H19" s="114"/>
@@ -13617,9 +13655,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20))</f>
         <v/>
       </c>
-      <c r="F20" s="75" t="str">
+      <c r="F20" s="75">
         <f>IF(LEN('Sprint 2 - Bilan'!$H20)&lt;&gt;0,'Sprint 2 - Bilan'!$H20,IF(LEN('Sprint 2 - Bilan'!$F20)=0,"",'Sprint 2 - Bilan'!$F20))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G20" s="110"/>
       <c r="H20" s="111"/>
@@ -13659,9 +13697,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21))</f>
         <v/>
       </c>
-      <c r="F21" s="77" t="str">
+      <c r="F21" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H21)&lt;&gt;0,'Sprint 2 - Bilan'!$H21,IF(LEN('Sprint 2 - Bilan'!$F21)=0,"",'Sprint 2 - Bilan'!$F21))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G21" s="116"/>
       <c r="H21" s="114"/>
@@ -13741,7 +13779,7 @@
       </c>
       <c r="E23" s="72">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23))</f>
-        <v>4.1666666666666699E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F23" s="76">
         <f>IF(LEN('Sprint 2 - Bilan'!$H23)&lt;&gt;0,'Sprint 2 - Bilan'!$H23,IF(LEN('Sprint 2 - Bilan'!$F23)=0,"",'Sprint 2 - Bilan'!$F23))</f>
@@ -14688,50 +14726,50 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F43">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>OR($F9=100%,$H9=100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND($D9&lt;&gt;"Sprint 3",$F9=100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19 G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>IF(ISBLANK($H9),IF(ISBLANK($F9),TRUE,$F9&lt;100%),$H9&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18 G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>IF(ISBLANK($H10),IF(ISBLANK($F10),TRUE,$F10&lt;100%),$H10&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I43">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G43">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H43">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:I9 B11:I11 B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:I10 B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14947,7 +14985,7 @@
       </c>
       <c r="V9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Essentielle")</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>69</v>
@@ -14967,7 +15005,7 @@
       </c>
       <c r="D10" s="94" t="str">
         <f t="shared" si="0"/>
-        <v>16h00</v>
+        <v>18h00</v>
       </c>
       <c r="E10" s="95" t="str">
         <f t="shared" si="0"/>
@@ -14975,7 +15013,7 @@
       </c>
       <c r="F10" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>28h00</v>
+        <v>30h00</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -14985,7 +15023,7 @@
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
-        <v>0.66666666666666818</v>
+        <v>0.75000000000000133</v>
       </c>
       <c r="N10" s="1">
         <f>'Sprint 3 - Bilan'!V9</f>
@@ -14993,7 +15031,7 @@
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>1.1666666666666679</v>
+        <v>1.2500000000000009</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
@@ -15004,7 +15042,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="1"/>
@@ -15015,7 +15053,7 @@
       </c>
       <c r="V10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Optionnelle")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>70</v>
@@ -15194,7 +15232,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZTHIqTmr8cTliRMGAcUcmM0mjbf6CIJ0mHH1g8KtGLF4lRA/UYuFPwpT4A16q2cQqIx/6PesESjQGKIAV9ov5g==" saltValue="9FKXXuq3MsinQZgjNrQSTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="F5:J5">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15517,22 +15555,22 @@
     <mergeCell ref="C35:G35"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="3" priority="69">
+    <cfRule type="expression" dxfId="7" priority="69">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/B65_-_Hiver_2019_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/docs/B65_-_Hiver_2019_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ecole\synthese\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E4A05-841A-4E10-8A72-F9E92E03C88A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D61D0-F299-460F-A3A9-E8DBC061A432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="494" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="494" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Planification" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -1555,53 +1555,6 @@
   </cellStyles>
   <dxfs count="82">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEDEEEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <top style="thin">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF40000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF1F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00C000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE5FFE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1760,6 +1713,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFEDEEEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1801,6 +1761,26 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <top style="thin">
+          <color rgb="FFC00000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC00000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFE00000"/>
       </font>
@@ -1817,6 +1797,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD1FFD1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF40000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF1F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00C000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5FFE5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2841,7 +2841,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3260,7 +3260,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11055,7 +11055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -12911,43 +12911,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:H19 I18:I21">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>AND($D9="Sprint 3",$H9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>AND($D9&lt;&gt;"Sprint 3",$H9&lt;1,NOT(ISBLANK($H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:H18">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>AND($D10="Sprint 3",$H10&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>AND($D10&lt;&gt;"Sprint 3",$H10&lt;1,NOT(ISBLANK($H10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I21">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G19">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H19">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:H19 I18:I21">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:H18">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12981,8 +12981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13047,7 +13047,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="63" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 32 champs à remplir!</v>
+        <v>Attention, il reste 7 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -13192,15 +13192,15 @@
       </c>
       <c r="S10" s="60">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T10" s="61">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="V11" s="62">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -13352,11 +13352,11 @@
       </c>
       <c r="V13" s="62">
         <f>V11</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>0 heure</v>
+        <v>12 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -13455,11 +13455,11 @@
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>0 minute</v>
+        <v>12 heures</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>0h00</v>
+        <v>12h00</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -13483,16 +13483,20 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H16)&lt;&gt;0,'Sprint 2 - Bilan'!$H16,IF(LEN('Sprint 2 - Bilan'!$F16)=0,"",'Sprint 2 - Bilan'!$F16))</f>
         <v>0.8</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
+      <c r="G16" s="110">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H16" s="111">
+        <v>1</v>
+      </c>
       <c r="I16" s="112"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13500,16 +13504,16 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>16 tâches n'ont pas été terminé!</v>
+        <v>11 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -13533,16 +13537,20 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H17)&lt;&gt;0,'Sprint 2 - Bilan'!$H17,IF(LEN('Sprint 2 - Bilan'!$F17)=0,"",'Sprint 2 - Bilan'!$F17))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
+      <c r="G17" s="113">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="H17" s="114">
+        <v>1</v>
+      </c>
       <c r="I17" s="115"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13550,7 +13558,7 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -13617,16 +13625,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H19)&lt;&gt;0,'Sprint 2 - Bilan'!$H19,IF(LEN('Sprint 2 - Bilan'!$F19)=0,"",'Sprint 2 - Bilan'!$F19))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="G19" s="116">
+        <v>0</v>
+      </c>
+      <c r="H19" s="114">
+        <v>0</v>
+      </c>
+      <c r="I19" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13659,16 +13673,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H20)&lt;&gt;0,'Sprint 2 - Bilan'!$H20,IF(LEN('Sprint 2 - Bilan'!$F20)=0,"",'Sprint 2 - Bilan'!$F20))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
+      <c r="G20" s="110">
+        <v>0</v>
+      </c>
+      <c r="H20" s="111">
+        <v>0</v>
+      </c>
+      <c r="I20" s="112" t="s">
+        <v>98</v>
+      </c>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13701,16 +13721,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H21)&lt;&gt;0,'Sprint 2 - Bilan'!$H21,IF(LEN('Sprint 2 - Bilan'!$F21)=0,"",'Sprint 2 - Bilan'!$F21))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
+      <c r="G21" s="116">
+        <v>0</v>
+      </c>
+      <c r="H21" s="114">
+        <v>0</v>
+      </c>
+      <c r="I21" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13828,7 +13854,9 @@
         <v/>
       </c>
       <c r="G24" s="110"/>
-      <c r="H24" s="111"/>
+      <c r="H24" s="111">
+        <v>1</v>
+      </c>
       <c r="I24" s="112"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
@@ -13836,7 +13864,7 @@
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13844,7 +13872,7 @@
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="8"/>
     </row>
@@ -13870,7 +13898,9 @@
         <v/>
       </c>
       <c r="G25" s="116"/>
-      <c r="H25" s="114"/>
+      <c r="H25" s="114">
+        <v>1</v>
+      </c>
       <c r="I25" s="115"/>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
@@ -13878,7 +13908,7 @@
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13886,7 +13916,7 @@
       </c>
       <c r="P25" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="8"/>
     </row>
@@ -13912,7 +13942,9 @@
         <v/>
       </c>
       <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
+      <c r="H26" s="111">
+        <v>1</v>
+      </c>
       <c r="I26" s="112"/>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
@@ -13920,7 +13952,7 @@
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13928,7 +13960,7 @@
       </c>
       <c r="P26" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="8"/>
     </row>
@@ -13995,16 +14027,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H28)&lt;&gt;0,'Sprint 2 - Bilan'!$H28,IF(LEN('Sprint 2 - Bilan'!$F28)=0,"",'Sprint 2 - Bilan'!$F28))</f>
         <v/>
       </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
+      <c r="G28" s="110">
+        <v>0</v>
+      </c>
+      <c r="H28" s="111">
+        <v>0</v>
+      </c>
+      <c r="I28" s="112" t="s">
+        <v>98</v>
+      </c>
       <c r="M28" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14037,16 +14075,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H29)&lt;&gt;0,'Sprint 2 - Bilan'!$H29,IF(LEN('Sprint 2 - Bilan'!$F29)=0,"",'Sprint 2 - Bilan'!$F29))</f>
         <v/>
       </c>
-      <c r="G29" s="113"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
+      <c r="G29" s="113">
+        <v>0</v>
+      </c>
+      <c r="H29" s="114">
+        <v>0</v>
+      </c>
+      <c r="I29" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M29" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14079,16 +14123,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H30)&lt;&gt;0,'Sprint 2 - Bilan'!$H30,IF(LEN('Sprint 2 - Bilan'!$F30)=0,"",'Sprint 2 - Bilan'!$F30))</f>
         <v/>
       </c>
-      <c r="G30" s="110"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="112"/>
+      <c r="G30" s="110">
+        <v>0</v>
+      </c>
+      <c r="H30" s="111">
+        <v>0</v>
+      </c>
+      <c r="I30" s="112" t="s">
+        <v>98</v>
+      </c>
       <c r="M30" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14121,16 +14171,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H31)&lt;&gt;0,'Sprint 2 - Bilan'!$H31,IF(LEN('Sprint 2 - Bilan'!$F31)=0,"",'Sprint 2 - Bilan'!$F31))</f>
         <v/>
       </c>
-      <c r="G31" s="116"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="115"/>
+      <c r="G31" s="116">
+        <v>0</v>
+      </c>
+      <c r="H31" s="114">
+        <v>0</v>
+      </c>
+      <c r="I31" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M31" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14163,16 +14219,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H32)&lt;&gt;0,'Sprint 2 - Bilan'!$H32,IF(LEN('Sprint 2 - Bilan'!$F32)=0,"",'Sprint 2 - Bilan'!$F32))</f>
         <v/>
       </c>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="112"/>
+      <c r="G32" s="110">
+        <v>0</v>
+      </c>
+      <c r="H32" s="111">
+        <v>0</v>
+      </c>
+      <c r="I32" s="112" t="s">
+        <v>98</v>
+      </c>
       <c r="M32" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14205,16 +14267,22 @@
         <f>IF(LEN('Sprint 2 - Bilan'!$H33)&lt;&gt;0,'Sprint 2 - Bilan'!$H33,IF(LEN('Sprint 2 - Bilan'!$F33)=0,"",'Sprint 2 - Bilan'!$F33))</f>
         <v/>
       </c>
-      <c r="G33" s="116"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115"/>
+      <c r="G33" s="116">
+        <v>0</v>
+      </c>
+      <c r="H33" s="114">
+        <v>0</v>
+      </c>
+      <c r="I33" s="115" t="s">
+        <v>98</v>
+      </c>
       <c r="M33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="b">
         <f t="shared" si="2"/>
@@ -14649,11 +14717,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14661,21 +14729,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>32 champs</v>
+        <v>7 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -14726,54 +14794,54 @@
     <mergeCell ref="I7:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F43">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>OR($F9=100%,$H9=100%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND($D9&lt;&gt;"Sprint 3",$F9=100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9 G11:I11 G13:I13 G15:I15 G17:I17 G19:I19 G21:I21 G23:I23 G25:I25 G27:I27 G29:I29 G31:I31 G33:I33 G35:I35 G37:I37 G39:I39 G41:I41 G43:I43">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>IF(ISBLANK($H9),IF(ISBLANK($F9),TRUE,$F9&lt;100%),$H9&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10 G12:I12 G14:I14 G16:I16 G18:I18 G20:I20 G22:I22 G24:I24 G26:I26 G28:I28 G30:I30 G32:I32 G34:I34 G36:I36 G38:I38 G40:I40 G42:I42">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>IF(ISBLANK($H10),IF(ISBLANK($F10),TRUE,$F10&lt;100%),$H10&lt;100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I43">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$O9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G43">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$M9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H43">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$N9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$M$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:I9 B11:I11 B13:I13 B15:I15 B17:I17 B19:I19 B21:I21 B23:I23 B25:I25 B27:I27 B29:I29 B31:I31 B33:I33 B35:I35 B37:I37 B39:I39 B41:I41 B43:I43">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>LEN($B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:I10 B12:I12 B14:I14 B16:I16 B18:I18 B20:I20 B22:I22 B24:I24 B26:I26 B28:I28 B30:I30 B32:I32 B34:I34 B36:I36 B38:I38 B40:I40 B42:I42">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations xWindow="1041" yWindow="937" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur de saisie" error="Les valeurs permises sont de 0h00 à 22h00 par intervalle de 15 minutes." promptTitle="Temps investi" prompt="_x000a_Veuillez saisir le temps que vous avez investi pour cette tâche pendant la période du Sprint 2. Vous devez ignorer le temps mis lors du sprint précédent._x000a__x000a_L'estimation de votre temps doit être le plus réaliste possible." sqref="G9:G43" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>TempsEstime</formula1>
     </dataValidation>
@@ -15009,11 +15077,11 @@
       </c>
       <c r="E10" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>12h00</v>
       </c>
       <c r="F10" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>30h00</v>
+        <v>42h00</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -15027,11 +15095,11 @@
       </c>
       <c r="N10" s="1">
         <f>'Sprint 3 - Bilan'!V9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>1.2500000000000009</v>
+        <v>1.7500000000000009</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
@@ -15046,7 +15114,7 @@
       </c>
       <c r="S10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>68</v>
@@ -15077,11 +15145,11 @@
       </c>
       <c r="E11" s="104">
         <f>N11</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" s="105">
         <f>O11</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -15095,11 +15163,11 @@
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -15232,7 +15300,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZTHIqTmr8cTliRMGAcUcmM0mjbf6CIJ0mHH1g8KtGLF4lRA/UYuFPwpT4A16q2cQqIx/6PesESjQGKIAV9ov5g==" saltValue="9FKXXuq3MsinQZgjNrQSTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="F5:J5">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15555,22 +15623,22 @@
     <mergeCell ref="C35:G35"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="7" priority="69">
+    <cfRule type="expression" dxfId="3" priority="69">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
